--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>Jez Humble</t>
+  </si>
+  <si>
+    <t>El que se duerme pierde</t>
+  </si>
+  <si>
+    <t>Tom Peter</t>
+  </si>
+  <si>
+    <t>Sin lugar a duda</t>
+  </si>
+  <si>
+    <t>Ana Gutierrez</t>
+  </si>
+  <si>
+    <t>El arte de dormir</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Buscando a Nemo</t>
+  </si>
+  <si>
+    <t>Humble Po</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -422,8 +449,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -448,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -506,8 +533,8 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>52</v>
+      <c r="D6" t="n">
+        <v>37090.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,6 +604,62 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
         <v>41.0</v>
       </c>
     </row>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ficheros-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop-Maxsio\Documents\00Max\00UCAB\8vo Semestre\Desarrollo del Software\Actividad\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -56,9 +56,6 @@
     <t>El fin de la dictadura</t>
   </si>
   <si>
-    <t>Juan Stand</t>
-  </si>
-  <si>
     <t>Luisa Pedroza</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Kuan Hg</t>
   </si>
   <si>
-    <t>Jhon Ricardo</t>
-  </si>
-  <si>
     <t>Juan G.</t>
   </si>
   <si>
@@ -123,15 +117,38 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Carlos Perez</t>
+  </si>
+  <si>
+    <t>Andres Loco</t>
+  </si>
+  <si>
+    <t>Hecto ramir</t>
+  </si>
+  <si>
+    <t>Carlos Arturo De la Raiz</t>
+  </si>
+  <si>
+    <t>Carlos Andres Mascar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -441,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +471,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -503,13 +521,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,13 +535,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -531,13 +549,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37090.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>37090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -545,125 +563,127 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="n">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41.0</v>
+      <c r="D15">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>Jez Humble</t>
+  </si>
+  <si>
+    <t>El que se duerme pierde</t>
+  </si>
+  <si>
+    <t>Tom Peter</t>
+  </si>
+  <si>
+    <t>Sin lugar a duda</t>
+  </si>
+  <si>
+    <t>Ana Gutierrez</t>
+  </si>
+  <si>
+    <t>El arte de dormir</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Buscando a Nemo</t>
+  </si>
+  <si>
+    <t>Humble Po</t>
   </si>
 </sst>
 </file>
@@ -422,8 +446,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,6 +604,62 @@
         <v>41.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
